--- a/data/01_raw/Klang Valley Districts.xlsx
+++ b/data/01_raw/Klang Valley Districts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeap.xinwei\OneDrive - PETRONAS\00 PETRONAS Work\6 Departmental Stuff\20210318 LAW Programme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petronas-my.sharepoint.com/personal/yeap_xinwei_petronas_com/Documents/00 PETRONAS Work/6 Departmental Stuff/20210318 LAW Programme/my-law-project/data/01_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE299F3D-C872-4C79-997F-4F81BCEE5E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{CE299F3D-C872-4C79-997F-4F81BCEE5E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D360338-288E-4665-AFAC-A22930AE2DF2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="208">
   <si>
     <t>District</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>101.7051° E</t>
+  </si>
+  <si>
+    <t>2.7023° N</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,6 +1653,12 @@
       <c r="B42" t="s">
         <v>46</v>
       </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
